--- a/class_0614/case.xlsx
+++ b/class_0614/case.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python34\TestCode\class_0614\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
   </bookViews>
   <sheets>
-    <sheet name="test_data" sheetId="1" r:id="rId1"/>
-    <sheet name="case" sheetId="2" r:id="rId2"/>
+    <sheet name="test_data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="case" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>case_id</t>
   </si>
@@ -55,41 +50,57 @@
     <t>get</t>
   </si>
   <si>
-    <t>http://apis.juhe.cn/cook/query.php</t>
-  </si>
-  <si>
-    <t>{'menu':'宫保鸡丁','key':'5c12d954b0908fc265c9ff3576fab727'}</t>
-  </si>
-  <si>
-    <t>Success</t>
-  </si>
-  <si>
-    <t>post</t>
+    <t>http://zuowen.api.juhe.cn/zuowen/content</t>
+  </si>
+  <si>
+    <t>{'id':'12121','key':'f4872646c4645300e1e0e56858aabd76'}</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>{'error_code': 0, 'result': {'comment': '这是一篇写景文章，作者从春、夏、秋、冬四个季节，分别抓住“雨\u200b水安静”“雷声轰隆”“凉风飒飒”“雨水不歇”的特点描写了家乡的美景。文章语言优美，大量的比喻句和拟人句把家乡的景色写得生动形象，让我们如临其境。', 'school': '高思教育', 'teacher': '高思名师：王璐璐', 'content': '&lt;p&gt;我的家乡是在四川，那里群山环绕，绿水成荫，有高耸的山脉还有淳朴的民风。&lt;/p&gt;&lt;p&gt;总之，我的家乡很美很美，我爱我的家乡。&lt;/p&gt;&lt;p&gt;春天，雨水安静，如一位优雅美丽的女子匆匆走来，田野里是辛勤的人们正在插秧，弯下腰去，不知不觉时光就这样晃动着，却从未觉得累。天上的白云移动着身姿，在风中摇曳，忽远忽近，或明或暗。&lt;/p&gt;&lt;p&gt;夏天，雷声轰隆，如一位健壮的大汉踏踏走来，田野里的农民正不知疲惫的收着稻谷，镰刀在与谷穗接触的一刹那，他们心中也溢满微笑。夏天的雨很不寻常，夏天的雷也是很不寻常，像是要把整个天都给撕裂，直叫人心惊。&lt;/p&gt;&lt;p&gt;秋天，凉风飒飒，如一位安静慈祥的老奶奶缓缓前行，坐在门前的田坎上，静静享受这天赐的恩惠，如沐秋风，却又实在是在秋风里，这难言的情感实在动人心弦。柚子，橘，香蕉……早已成熟，发出一股浓浓的香甜，让人忍不住摘一个来吃。&lt;/p&gt;&lt;p&gt;冬天，雨水不歇，如一位刻苦学习的学生矫健前行，每日都不会停歇脚步去探索这个世界的奥秘，家乡的冬天几乎是看不到雪的，只有雨水在哗啦啦的下个不停，不大不小，刚好可以感到惬意。&lt;/p&gt;&lt;p&gt;这就是我家乡的四季，有空可以到我们家乡来看看，我会好好招待你们的。&lt;/p&gt;', 'id': 12121}, 'reason': 'success'}</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>{'id':'11222','key':'f4872646c4645300e1e0e56858aabd76'}</t>
+  </si>
+  <si>
+    <t>{'error_code': 0, 'result': {'comment': '这篇文章，通过时间顺序，向我们展示了作者快乐的迪斯尼之旅。文章主要向我们介绍了“飞超太空山”、“驰车天地”以及“漂流之旅”等几个项目，让我们感受到了小作者心中的快乐。作为一年级的学生，文章叙述完整通顺，可以表达出自己内心的感受，是篇不错的文章。', 'school': '高思教育', 'teacher': '高思名师：付宝', 'content': '&lt;p&gt;暑假，爸爸妈妈计划带我去香港迪士尼玩。&lt;/p&gt;&lt;p&gt;7月17日，爸爸带我坐高铁去深圳与妈妈会合；这是我第一次坐高铁，感觉速度非常快，时速达到300公里/小时，3个小时就到了深圳，不愧是高铁呀。&lt;/p&gt;&lt;p&gt;7月18日，我们从皇岗出关，坐直达巴士来到了全世界小朋友的天堂--迪士尼乐园。开始了为期两天的香港迪士尼之旅；小朋友们和我一起来体验吧：&lt;/p&gt;&lt;p&gt;男孩子必玩的最惊险的项目：飞越太空山、极速矿车、玩具兵团跳降伞&lt;/p&gt;&lt;p&gt;飞超太空山：我坐进飞船上准备探索平时书中了解到的宇宙，飞船带着我在宇宙中飞行，在美丽的星空中穿行，我看到了美丽的银河系、太阳系九大行星、惊险的陨石地带、还看到了晚期的恒星－白矮星……，突然，飞船被吸入了恐怖的黑洞。飞船在黑洞中极速飞行，我害怕极了，紧紧的闭上了眼睛，以尖叫来发出心中的恐惧，最后飞船终于冲出黑洞，返回地球。因为该项目太惊险，但美丽的宇宙给我的吸引力太大，克服了恐惧心理，我在玩完所有项目之后，第二次玩了这个项目，第二次吸入黑洞时，我没有闭上眼睛，随着飞船再次在黑洞中穿行，感受穿越黑洞的惊险、刺激。&lt;/p&gt;&lt;p&gt;极速矿车和玩具兵团跳降两个项目分别让我体验了当矿工和伞兵的惊险、刺激；&lt;/p&gt;&lt;p&gt;这三个项目是男孩子必玩；项目，通过玩这三个项目，我的胆量不知不觉变大了。&lt;/p&gt;&lt;p&gt;男孩子喜欢的项目：驰车天地、巴斯光年星际历险&lt;/p&gt;&lt;p&gt;我在驰车天地，第一次驾驶着汽车在”高速公路”上飞驰，享受了风驰电掣的快感。开车的感觉真棒。&lt;/p&gt;&lt;p&gt;我奔赴一趟漫无边际的探险旅程，帮助巴斯光年将宇宙从索克天王的魔掌中拯救过来，我是三级星际战士。&lt;/p&gt;&lt;p&gt;漂流之旅：小人国、森林河、维尼熊历险&lt;/p&gt;&lt;p&gt;漂流之旅都是坐在船上的，在小人国世界里进行环球旅行，体验小人国世界的各国风情，提前实现了我的环球旅行梦想；在森林河，船长带着我们进入神秘的探险河，看到人美国原住民－印第安人的生活，还看到了火山爆发。坐进蜜糖罐，我们穿越百亩森林，体验了维尼小熊的童话之旅&lt;/p&gt;&lt;p&gt;还看了非常好看的花车巡游、水花巡游、狮子王庆典、米奇金奖音乐剧。&lt;/p&gt;&lt;p&gt;……&lt;/p&gt;&lt;p&gt;7月19日下午四点半，我依依不舍的离开了“天堂”，奔赴我们旅程的下一站；妈妈答应明年再带我来玩，我期待下一次迪士尼之旅，小朋友们你们和我一起吗？&lt;/p&gt;', 'id': 11222}, 'reason': 'success'}</t>
+  </si>
+  <si>
+    <t>{'id':'112211','key':'f4872646c4645300e1e0e56858aabd76'}</t>
+  </si>
+  <si>
+    <t>{'error_code': 0, 'result': {'comment': '用词不准确，语言平淡', 'school': '高思教育', 'teacher': '高思名师：赵维', 'content': '&lt;p&gt;星期六的傍晚，天阴沉沉的，还不是飘着细雨。几只家燕在马路上无忧无虑的嬉戏着。突然，一辆大货车呼啸而过，我的心一紧，不禁闭上了眼睛，我知道，不幸的事情发生了。&lt;/p&gt;&lt;p&gt;货车的车轮声渐渐地远了，我便慢慢的睁开了双眼，我看见了惨不忍睹的一幕——地上躺着一只死去的家燕，我记得，这只家燕叫粒粒。过了一会儿，我只见粒粒的一个伙伴——幻幻飞了过来，它们两个是两姐妹，也是一起从小玩到大的好朋友，可是现在，粒粒已经死了，幻幻也很伤心，一直守候在粒粒的身旁，还不是的挥动着翅膀、尖叫，希望它的伙伴粒粒能醒过来。可是幻幻做的这一切都无济于事，直到幻幻看见粒粒的翅膀一直在流血，才明白粒粒已经死了。可是幻幻不愿离开，并试图把粒粒拖回家，但无论幻幻怎么试都带不走粒粒。这时，又飞来了一只燕，它是粒粒和幻幻的另一个朋友，它叫琳达。琳达不停的对幻幻叫着，好像在说，幻幻，我们快走吧！不然，也会遭到核粒粒一样的命运的！&lt;/p&gt;&lt;p&gt;从此，这两只小鸟幸福的生活在了一起，但它们也常常会想起粒粒。&lt;/p&gt;', 'id': 112211}, 'reason': 'success'}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -126,37 +137,34 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="8">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -446,24 +454,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G2" sqref="G2:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="7.625" customWidth="1"/>
-    <col min="4" max="4" width="20" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="15.5" bestFit="1" customWidth="1"/>
+    <col customWidth="1" max="2" min="2" width="10.5"/>
+    <col customWidth="1" max="3" min="3" width="7.625"/>
+    <col customWidth="1" max="4" min="4" style="1" width="20"/>
+    <col customWidth="1" max="5" min="5" style="1" width="31.375"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" width="21.375"/>
+    <col bestFit="1" customWidth="1" max="9" min="8" width="15.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -479,7 +491,7 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -492,8 +504,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4">
+    <row customHeight="1" ht="40.5" r="2" spans="1:9">
+      <c r="A2" s="4" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -502,160 +514,178 @@
       <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="4" t="n"/>
     </row>
-    <row r="3" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4">
+    <row customHeight="1" ht="40.5" r="3" spans="1:9">
+      <c r="A3" s="4" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="4" t="n"/>
     </row>
-    <row r="4" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
+    <row customHeight="1" ht="40.5" r="4" spans="1:9">
+      <c r="A4" s="4" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="4" t="n"/>
     </row>
-    <row r="5" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4">
+    <row customHeight="1" ht="40.5" r="5" spans="1:9">
+      <c r="A5" s="4" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="4" t="n"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A2:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2">
+    <row r="2" spans="1:8">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>3</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>4</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>5</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>6</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>7</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3">
+    <row r="3" spans="1:8">
+      <c r="A3" t="n">
         <v>11</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>22</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>33</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>44</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>55</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>66</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>77</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>88</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/class_0614/case.xlsx
+++ b/class_0614/case.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>case_id</t>
   </si>
@@ -59,7 +59,7 @@
     <t>success</t>
   </si>
   <si>
-    <t>{'error_code': 0, 'result': {'comment': '这是一篇写景文章，作者从春、夏、秋、冬四个季节，分别抓住“雨\u200b水安静”“雷声轰隆”“凉风飒飒”“雨水不歇”的特点描写了家乡的美景。文章语言优美，大量的比喻句和拟人句把家乡的景色写得生动形象，让我们如临其境。', 'school': '高思教育', 'teacher': '高思名师：王璐璐', 'content': '&lt;p&gt;我的家乡是在四川，那里群山环绕，绿水成荫，有高耸的山脉还有淳朴的民风。&lt;/p&gt;&lt;p&gt;总之，我的家乡很美很美，我爱我的家乡。&lt;/p&gt;&lt;p&gt;春天，雨水安静，如一位优雅美丽的女子匆匆走来，田野里是辛勤的人们正在插秧，弯下腰去，不知不觉时光就这样晃动着，却从未觉得累。天上的白云移动着身姿，在风中摇曳，忽远忽近，或明或暗。&lt;/p&gt;&lt;p&gt;夏天，雷声轰隆，如一位健壮的大汉踏踏走来，田野里的农民正不知疲惫的收着稻谷，镰刀在与谷穗接触的一刹那，他们心中也溢满微笑。夏天的雨很不寻常，夏天的雷也是很不寻常，像是要把整个天都给撕裂，直叫人心惊。&lt;/p&gt;&lt;p&gt;秋天，凉风飒飒，如一位安静慈祥的老奶奶缓缓前行，坐在门前的田坎上，静静享受这天赐的恩惠，如沐秋风，却又实在是在秋风里，这难言的情感实在动人心弦。柚子，橘，香蕉……早已成熟，发出一股浓浓的香甜，让人忍不住摘一个来吃。&lt;/p&gt;&lt;p&gt;冬天，雨水不歇，如一位刻苦学习的学生矫健前行，每日都不会停歇脚步去探索这个世界的奥秘，家乡的冬天几乎是看不到雪的，只有雨水在哗啦啦的下个不停，不大不小，刚好可以感到惬意。&lt;/p&gt;&lt;p&gt;这就是我家乡的四季，有空可以到我们家乡来看看，我会好好招待你们的。&lt;/p&gt;', 'id': 12121}, 'reason': 'success'}</t>
+    <t>{'reason': 'success', 'result': {'teacher': '高思名师：王璐璐', 'school': '高思教育', 'id': 12121, 'comment': '这是一篇写景文章，作者从春、夏、秋、冬四个季节，分别抓住“雨\u200b水安静”“雷声轰隆”“凉风飒飒”“雨水不歇”的特点描写了家乡的美景。文章语言优美，大量的比喻句和拟人句把家乡的景色写得生动形象，让我们如临其境。', 'content': '&lt;p&gt;我的家乡是在四川，那里群山环绕，绿水成荫，有高耸的山脉还有淳朴的民风。&lt;/p&gt;&lt;p&gt;总之，我的家乡很美很美，我爱我的家乡。&lt;/p&gt;&lt;p&gt;春天，雨水安静，如一位优雅美丽的女子匆匆走来，田野里是辛勤的人们正在插秧，弯下腰去，不知不觉时光就这样晃动着，却从未觉得累。天上的白云移动着身姿，在风中摇曳，忽远忽近，或明或暗。&lt;/p&gt;&lt;p&gt;夏天，雷声轰隆，如一位健壮的大汉踏踏走来，田野里的农民正不知疲惫的收着稻谷，镰刀在与谷穗接触的一刹那，他们心中也溢满微笑。夏天的雨很不寻常，夏天的雷也是很不寻常，像是要把整个天都给撕裂，直叫人心惊。&lt;/p&gt;&lt;p&gt;秋天，凉风飒飒，如一位安静慈祥的老奶奶缓缓前行，坐在门前的田坎上，静静享受这天赐的恩惠，如沐秋风，却又实在是在秋风里，这难言的情感实在动人心弦。柚子，橘，香蕉……早已成熟，发出一股浓浓的香甜，让人忍不住摘一个来吃。&lt;/p&gt;&lt;p&gt;冬天，雨水不歇，如一位刻苦学习的学生矫健前行，每日都不会停歇脚步去探索这个世界的奥秘，家乡的冬天几乎是看不到雪的，只有雨水在哗啦啦的下个不停，不大不小，刚好可以感到惬意。&lt;/p&gt;&lt;p&gt;这就是我家乡的四季，有空可以到我们家乡来看看，我会好好招待你们的。&lt;/p&gt;'}, 'error_code': 0}</t>
   </si>
   <si>
     <t>pass</t>
@@ -68,13 +68,22 @@
     <t>{'id':'11222','key':'f4872646c4645300e1e0e56858aabd76'}</t>
   </si>
   <si>
-    <t>{'error_code': 0, 'result': {'comment': '这篇文章，通过时间顺序，向我们展示了作者快乐的迪斯尼之旅。文章主要向我们介绍了“飞超太空山”、“驰车天地”以及“漂流之旅”等几个项目，让我们感受到了小作者心中的快乐。作为一年级的学生，文章叙述完整通顺，可以表达出自己内心的感受，是篇不错的文章。', 'school': '高思教育', 'teacher': '高思名师：付宝', 'content': '&lt;p&gt;暑假，爸爸妈妈计划带我去香港迪士尼玩。&lt;/p&gt;&lt;p&gt;7月17日，爸爸带我坐高铁去深圳与妈妈会合；这是我第一次坐高铁，感觉速度非常快，时速达到300公里/小时，3个小时就到了深圳，不愧是高铁呀。&lt;/p&gt;&lt;p&gt;7月18日，我们从皇岗出关，坐直达巴士来到了全世界小朋友的天堂--迪士尼乐园。开始了为期两天的香港迪士尼之旅；小朋友们和我一起来体验吧：&lt;/p&gt;&lt;p&gt;男孩子必玩的最惊险的项目：飞越太空山、极速矿车、玩具兵团跳降伞&lt;/p&gt;&lt;p&gt;飞超太空山：我坐进飞船上准备探索平时书中了解到的宇宙，飞船带着我在宇宙中飞行，在美丽的星空中穿行，我看到了美丽的银河系、太阳系九大行星、惊险的陨石地带、还看到了晚期的恒星－白矮星……，突然，飞船被吸入了恐怖的黑洞。飞船在黑洞中极速飞行，我害怕极了，紧紧的闭上了眼睛，以尖叫来发出心中的恐惧，最后飞船终于冲出黑洞，返回地球。因为该项目太惊险，但美丽的宇宙给我的吸引力太大，克服了恐惧心理，我在玩完所有项目之后，第二次玩了这个项目，第二次吸入黑洞时，我没有闭上眼睛，随着飞船再次在黑洞中穿行，感受穿越黑洞的惊险、刺激。&lt;/p&gt;&lt;p&gt;极速矿车和玩具兵团跳降两个项目分别让我体验了当矿工和伞兵的惊险、刺激；&lt;/p&gt;&lt;p&gt;这三个项目是男孩子必玩；项目，通过玩这三个项目，我的胆量不知不觉变大了。&lt;/p&gt;&lt;p&gt;男孩子喜欢的项目：驰车天地、巴斯光年星际历险&lt;/p&gt;&lt;p&gt;我在驰车天地，第一次驾驶着汽车在”高速公路”上飞驰，享受了风驰电掣的快感。开车的感觉真棒。&lt;/p&gt;&lt;p&gt;我奔赴一趟漫无边际的探险旅程，帮助巴斯光年将宇宙从索克天王的魔掌中拯救过来，我是三级星际战士。&lt;/p&gt;&lt;p&gt;漂流之旅：小人国、森林河、维尼熊历险&lt;/p&gt;&lt;p&gt;漂流之旅都是坐在船上的，在小人国世界里进行环球旅行，体验小人国世界的各国风情，提前实现了我的环球旅行梦想；在森林河，船长带着我们进入神秘的探险河，看到人美国原住民－印第安人的生活，还看到了火山爆发。坐进蜜糖罐，我们穿越百亩森林，体验了维尼小熊的童话之旅&lt;/p&gt;&lt;p&gt;还看了非常好看的花车巡游、水花巡游、狮子王庆典、米奇金奖音乐剧。&lt;/p&gt;&lt;p&gt;……&lt;/p&gt;&lt;p&gt;7月19日下午四点半，我依依不舍的离开了“天堂”，奔赴我们旅程的下一站；妈妈答应明年再带我来玩，我期待下一次迪士尼之旅，小朋友们你们和我一起吗？&lt;/p&gt;', 'id': 11222}, 'reason': 'success'}</t>
+    <t>{'reason': 'success', 'result': {'teacher': '高思名师：付宝', 'school': '高思教育', 'id': 11222, 'comment': '这篇文章，通过时间顺序，向我们展示了作者快乐的迪斯尼之旅。文章主要向我们介绍了“飞超太空山”、“驰车天地”以及“漂流之旅”等几个项目，让我们感受到了小作者心中的快乐。作为一年级的学生，文章叙述完整通顺，可以表达出自己内心的感受，是篇不错的文章。', 'content': '&lt;p&gt;暑假，爸爸妈妈计划带我去香港迪士尼玩。&lt;/p&gt;&lt;p&gt;7月17日，爸爸带我坐高铁去深圳与妈妈会合；这是我第一次坐高铁，感觉速度非常快，时速达到300公里/小时，3个小时就到了深圳，不愧是高铁呀。&lt;/p&gt;&lt;p&gt;7月18日，我们从皇岗出关，坐直达巴士来到了全世界小朋友的天堂--迪士尼乐园。开始了为期两天的香港迪士尼之旅；小朋友们和我一起来体验吧：&lt;/p&gt;&lt;p&gt;男孩子必玩的最惊险的项目：飞越太空山、极速矿车、玩具兵团跳降伞&lt;/p&gt;&lt;p&gt;飞超太空山：我坐进飞船上准备探索平时书中了解到的宇宙，飞船带着我在宇宙中飞行，在美丽的星空中穿行，我看到了美丽的银河系、太阳系九大行星、惊险的陨石地带、还看到了晚期的恒星－白矮星……，突然，飞船被吸入了恐怖的黑洞。飞船在黑洞中极速飞行，我害怕极了，紧紧的闭上了眼睛，以尖叫来发出心中的恐惧，最后飞船终于冲出黑洞，返回地球。因为该项目太惊险，但美丽的宇宙给我的吸引力太大，克服了恐惧心理，我在玩完所有项目之后，第二次玩了这个项目，第二次吸入黑洞时，我没有闭上眼睛，随着飞船再次在黑洞中穿行，感受穿越黑洞的惊险、刺激。&lt;/p&gt;&lt;p&gt;极速矿车和玩具兵团跳降两个项目分别让我体验了当矿工和伞兵的惊险、刺激；&lt;/p&gt;&lt;p&gt;这三个项目是男孩子必玩；项目，通过玩这三个项目，我的胆量不知不觉变大了。&lt;/p&gt;&lt;p&gt;男孩子喜欢的项目：驰车天地、巴斯光年星际历险&lt;/p&gt;&lt;p&gt;我在驰车天地，第一次驾驶着汽车在”高速公路”上飞驰，享受了风驰电掣的快感。开车的感觉真棒。&lt;/p&gt;&lt;p&gt;我奔赴一趟漫无边际的探险旅程，帮助巴斯光年将宇宙从索克天王的魔掌中拯救过来，我是三级星际战士。&lt;/p&gt;&lt;p&gt;漂流之旅：小人国、森林河、维尼熊历险&lt;/p&gt;&lt;p&gt;漂流之旅都是坐在船上的，在小人国世界里进行环球旅行，体验小人国世界的各国风情，提前实现了我的环球旅行梦想；在森林河，船长带着我们进入神秘的探险河，看到人美国原住民－印第安人的生活，还看到了火山爆发。坐进蜜糖罐，我们穿越百亩森林，体验了维尼小熊的童话之旅&lt;/p&gt;&lt;p&gt;还看了非常好看的花车巡游、水花巡游、狮子王庆典、米奇金奖音乐剧。&lt;/p&gt;&lt;p&gt;……&lt;/p&gt;&lt;p&gt;7月19日下午四点半，我依依不舍的离开了“天堂”，奔赴我们旅程的下一站；妈妈答应明年再带我来玩，我期待下一次迪士尼之旅，小朋友们你们和我一起吗？&lt;/p&gt;'}, 'error_code': 0}</t>
   </si>
   <si>
     <t>{'id':'112211','key':'f4872646c4645300e1e0e56858aabd76'}</t>
   </si>
   <si>
-    <t>{'error_code': 0, 'result': {'comment': '用词不准确，语言平淡', 'school': '高思教育', 'teacher': '高思名师：赵维', 'content': '&lt;p&gt;星期六的傍晚，天阴沉沉的，还不是飘着细雨。几只家燕在马路上无忧无虑的嬉戏着。突然，一辆大货车呼啸而过，我的心一紧，不禁闭上了眼睛，我知道，不幸的事情发生了。&lt;/p&gt;&lt;p&gt;货车的车轮声渐渐地远了，我便慢慢的睁开了双眼，我看见了惨不忍睹的一幕——地上躺着一只死去的家燕，我记得，这只家燕叫粒粒。过了一会儿，我只见粒粒的一个伙伴——幻幻飞了过来，它们两个是两姐妹，也是一起从小玩到大的好朋友，可是现在，粒粒已经死了，幻幻也很伤心，一直守候在粒粒的身旁，还不是的挥动着翅膀、尖叫，希望它的伙伴粒粒能醒过来。可是幻幻做的这一切都无济于事，直到幻幻看见粒粒的翅膀一直在流血，才明白粒粒已经死了。可是幻幻不愿离开，并试图把粒粒拖回家，但无论幻幻怎么试都带不走粒粒。这时，又飞来了一只燕，它是粒粒和幻幻的另一个朋友，它叫琳达。琳达不停的对幻幻叫着，好像在说，幻幻，我们快走吧！不然，也会遭到核粒粒一样的命运的！&lt;/p&gt;&lt;p&gt;从此，这两只小鸟幸福的生活在了一起，但它们也常常会想起粒粒。&lt;/p&gt;', 'id': 112211}, 'reason': 'success'}</t>
+    <t>{'reason': 'success', 'result': {'teacher': '高思名师：赵维', 'school': '高思教育', 'id': 112211, 'comment': '用词不准确，语言平淡', 'content': '&lt;p&gt;星期六的傍晚，天阴沉沉的，还不是飘着细雨。几只家燕在马路上无忧无虑的嬉戏着。突然，一辆大货车呼啸而过，我的心一紧，不禁闭上了眼睛，我知道，不幸的事情发生了。&lt;/p&gt;&lt;p&gt;货车的车轮声渐渐地远了，我便慢慢的睁开了双眼，我看见了惨不忍睹的一幕——地上躺着一只死去的家燕，我记得，这只家燕叫粒粒。过了一会儿，我只见粒粒的一个伙伴——幻幻飞了过来，它们两个是两姐妹，也是一起从小玩到大的好朋友，可是现在，粒粒已经死了，幻幻也很伤心，一直守候在粒粒的身旁，还不是的挥动着翅膀、尖叫，希望它的伙伴粒粒能醒过来。可是幻幻做的这一切都无济于事，直到幻幻看见粒粒的翅膀一直在流血，才明白粒粒已经死了。可是幻幻不愿离开，并试图把粒粒拖回家，但无论幻幻怎么试都带不走粒粒。这时，又飞来了一只燕，它是粒粒和幻幻的另一个朋友，它叫琳达。琳达不停的对幻幻叫着，好像在说，幻幻，我们快走吧！不然，也会遭到核粒粒一样的命运的！&lt;/p&gt;&lt;p&gt;从此，这两只小鸟幸福的生活在了一起，但它们也常常会想起粒粒。&lt;/p&gt;'}, 'error_code': 0}</t>
+  </si>
+  <si>
+    <t>{'id':'112211','key':'f4872646c4645300e1e0e56858aabd77'}</t>
+  </si>
+  <si>
+    <t>{'reason': '错误的请求KEY!!', 'result': None, 'error_code': 10001}</t>
+  </si>
+  <si>
+    <t>fail</t>
   </si>
 </sst>
 </file>
@@ -462,7 +471,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H2"/>
+      <selection activeCell="G2" sqref="G2:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -599,16 +608,16 @@
         <v>11</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I5" s="4" t="n"/>
     </row>
